--- a/static/Excel/data_sensus.xlsx
+++ b/static/Excel/data_sensus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,27 +539,113 @@
           <t>Memiliki Pekerjaan Tapi Sedang Tidak Bekerja</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan yang Diinginkan</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Bidang Usaha yang Diminati</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Utama</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Pemasaran Usaha Utama</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Penjualan Marketplace Utama</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Diinginkan Utama</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Bidang Usaha Utama</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Sampingan 1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Pemasaran Usaha Sampingan 1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Penjualan Marketplace Sampingan 1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Diinginkan Sampingan 1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Bidang Usaha Sampingan 1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Sampingan 2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Pemasaran Usaha Sampingan 2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Penjualan Marketplace Sampingan 2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pekerjaan Diinginkan Sampingan 2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Bidang Usaha Sampingan 2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Memiliki Lebih dari Satu Pekerjaan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-05-2025 13:18:04</t>
+          <t>26-05-2025 22:44:33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KEL-12-26052025131804</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>KEL-12-26052025224433</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -568,26 +654,26 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ibram</t>
+          <t>paijo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>jalanan</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ibram</t>
+          <t>paijo</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -604,6 +690,459 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26-05-2025 22:57:04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KEL-12-26052025224433</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sidokepung</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>jalanan</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>rendi</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>40</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Suami/Istri</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Laki-Laki</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Kawin</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PERGURUAN TINGGI</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Bekerja</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Makanan</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Pekerja Keluarga</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>makanan</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>minuman</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-05-2025 22:58:21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KEL-12-26052025224433</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sidokepung</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jalanan</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>wahyu sangpputro</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Anak</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Laki-Laki</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Belum Kawin</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>SMA/MA/SMK/MAK/SMALB/PAKET C</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Sekolah</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>obatan</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-05-2025 22:59:22</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KEL-12-26052025224433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sidokepung</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>paijo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>jalanan</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ilhammam</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Menantu</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Perempuan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Kawin</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PERGURUAN TINGGI</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bekerja</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Berusaha Sendiri</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Buruh/Karyawan/Pegawai</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Tidak</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
